--- a/MTP_TEST_SHEET/test_cases_old.xlsx
+++ b/MTP_TEST_SHEET/test_cases_old.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lollal\Documents\Katalon\Local_agent\active-testing\MTP_TEST_SHEET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4004F028-C6D1-48EA-8E28-D60422D8B49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C1CE42-8ED3-4C3A-9F52-FD58B99A256D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4CA04EDA-5F88-F44F-AED6-BB3F5A70B725}"/>
   </bookViews>
@@ -862,12 +862,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -898,13 +904,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1222,8 +1230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A8D0294-7B17-C346-9BB8-48947A2F0825}">
   <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A130"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1373,283 +1381,283 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="11" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="D17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="D18" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="D19" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="D20" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="D21" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="D22" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="D23" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="D24" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="D25" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="D26" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="D27" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="D28" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="D29" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="5">
         <v>0</v>
       </c>
     </row>

--- a/MTP_TEST_SHEET/test_cases_old.xlsx
+++ b/MTP_TEST_SHEET/test_cases_old.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lollal\Documents\Katalon\Local_agent\active-testing\MTP_TEST_SHEET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C1CE42-8ED3-4C3A-9F52-FD58B99A256D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C49BB1-AF13-4B99-BEA5-26A27961CC1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4CA04EDA-5F88-F44F-AED6-BB3F5A70B725}"/>
+    <workbookView xWindow="2760" yWindow="2760" windowWidth="14400" windowHeight="7360" xr2:uid="{4CA04EDA-5F88-F44F-AED6-BB3F5A70B725}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -862,7 +862,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -872,6 +872,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -904,7 +910,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -913,6 +919,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1230,8 +1238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A8D0294-7B17-C346-9BB8-48947A2F0825}">
   <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD30"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:XFD75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1938,353 +1946,353 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B51" t="s">
+    <row r="51" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B51" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="D51" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B52" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B53" t="s">
+      <c r="D52" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B53" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B54" t="s">
+      <c r="D53" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B54" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B55" t="s">
+      <c r="D54" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B55" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B56" t="s">
+      <c r="D55" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B56" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B57" t="s">
+      <c r="D56" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B57" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B58" t="s">
+      <c r="D57" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B58" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B59" t="s">
+      <c r="D58" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B59" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B60" t="s">
+      <c r="D59" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B60" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B61" t="s">
+      <c r="D60" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B61" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B62" t="s">
+      <c r="D61" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B62" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B63" t="s">
+      <c r="D62" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B63" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B64" t="s">
+      <c r="D63" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B64" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B65" t="s">
+      <c r="D64" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B65" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B66" t="s">
+      <c r="D65" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B66" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B67" t="s">
+      <c r="D66" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B67" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B68" t="s">
+      <c r="D67" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B68" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B69" t="s">
+      <c r="D68" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B69" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B70" t="s">
+      <c r="D69" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B70" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B71" t="s">
+      <c r="D70" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B71" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B72" t="s">
+      <c r="D71" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B72" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B73" t="s">
+      <c r="D72" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B73" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="D73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B74" t="s">
+      <c r="D73" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B74" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B75" t="s">
+      <c r="D74" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B75" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="7">
         <v>1</v>
       </c>
     </row>

--- a/MTP_TEST_SHEET/test_cases_old.xlsx
+++ b/MTP_TEST_SHEET/test_cases_old.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lollal\Documents\Katalon\Local_agent\active-testing\MTP_TEST_SHEET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C49BB1-AF13-4B99-BEA5-26A27961CC1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9FE3D0-B06F-4C66-A584-8286124C7755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="2760" windowWidth="14400" windowHeight="7360" xr2:uid="{4CA04EDA-5F88-F44F-AED6-BB3F5A70B725}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{4CA04EDA-5F88-F44F-AED6-BB3F5A70B725}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -862,7 +862,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -878,6 +878,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -910,7 +916,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -921,6 +927,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1238,8 +1246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A8D0294-7B17-C346-9BB8-48947A2F0825}">
   <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:XFD75"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61:XFD79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2086,269 +2094,269 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="B61" s="7" t="s">
+    <row r="61" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B61" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="D61" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="B62" s="7" t="s">
+      <c r="D61" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B62" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="D62" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="B63" s="7" t="s">
+      <c r="D62" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B63" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="D63" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="B64" s="7" t="s">
+      <c r="D63" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B64" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="D64" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="B65" s="7" t="s">
+      <c r="D64" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B65" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="D65" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="B66" s="7" t="s">
+      <c r="D65" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B66" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="D66" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="B67" s="7" t="s">
+      <c r="D66" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B67" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C67" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="D67" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="B68" s="7" t="s">
+      <c r="D67" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B68" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C68" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="D68" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="B69" s="7" t="s">
+      <c r="D68" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B69" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C69" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="D69" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="B70" s="7" t="s">
+      <c r="D69" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B70" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C70" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="D70" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="B71" s="7" t="s">
+      <c r="D70" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B71" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C71" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="D71" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="B72" s="7" t="s">
+      <c r="D71" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B72" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C72" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="D72" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="B73" s="7" t="s">
+      <c r="D72" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B73" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C73" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D73" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="B74" s="7" t="s">
+      <c r="D73" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B74" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C74" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="D74" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="B75" s="7" t="s">
+      <c r="D74" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B75" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C75" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="D75" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B76" t="s">
+      <c r="D75" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B76" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="D76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B77" t="s">
+      <c r="D76" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B77" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="D77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B78" t="s">
+      <c r="D77" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B78" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="D78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B79" t="s">
+      <c r="D78" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B79" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="9">
         <v>1</v>
       </c>
     </row>

--- a/MTP_TEST_SHEET/test_cases_old.xlsx
+++ b/MTP_TEST_SHEET/test_cases_old.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lollal\Documents\Katalon\Local_agent\active-testing\MTP_TEST_SHEET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9FE3D0-B06F-4C66-A584-8286124C7755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14300E29-A9F3-41D3-913C-2C6450E6E156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{4CA04EDA-5F88-F44F-AED6-BB3F5A70B725}"/>
+    <workbookView xWindow="880" yWindow="500" windowWidth="14400" windowHeight="7360" xr2:uid="{4CA04EDA-5F88-F44F-AED6-BB3F5A70B725}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -862,7 +862,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -883,7 +883,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -916,7 +922,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -929,6 +935,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1246,8 +1254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A8D0294-7B17-C346-9BB8-48947A2F0825}">
   <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61:XFD79"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71:XFD80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2234,143 +2242,143 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="B71" s="9" t="s">
+    <row r="71" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="B71" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="C71" s="9" t="s">
+      <c r="C71" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="D71" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="B72" s="9" t="s">
+      <c r="D71" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="B72" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="C72" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="D72" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="B73" s="9" t="s">
+      <c r="D72" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="B73" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="C73" s="9" t="s">
+      <c r="C73" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="D73" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="B74" s="9" t="s">
+      <c r="D73" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="B74" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="C74" s="9" t="s">
+      <c r="C74" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="D74" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="B75" s="9" t="s">
+      <c r="D74" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="B75" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="C75" s="9" t="s">
+      <c r="C75" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="D75" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="B76" s="9" t="s">
+      <c r="D75" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="B76" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="C76" s="9" t="s">
+      <c r="C76" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="D76" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="B77" s="9" t="s">
+      <c r="D76" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="B77" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="C77" s="9" t="s">
+      <c r="C77" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="D77" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="B78" s="9" t="s">
+      <c r="D77" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="B78" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="C78" s="9" t="s">
+      <c r="C78" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="D78" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="B79" s="9" t="s">
+      <c r="D78" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="B79" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C79" s="9" t="s">
+      <c r="C79" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="D79" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B80" t="s">
+      <c r="D79" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="B80" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="11">
         <v>1</v>
       </c>
     </row>

--- a/MTP_TEST_SHEET/test_cases_old.xlsx
+++ b/MTP_TEST_SHEET/test_cases_old.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lollal\Documents\Katalon\Local_agent\active-testing\MTP_TEST_SHEET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14300E29-A9F3-41D3-913C-2C6450E6E156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD283049-39E2-43F9-9129-0188E60B8EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="500" windowWidth="14400" windowHeight="7360" xr2:uid="{4CA04EDA-5F88-F44F-AED6-BB3F5A70B725}"/>
+    <workbookView minimized="1" xWindow="540" yWindow="160" windowWidth="14400" windowHeight="7360" xr2:uid="{4CA04EDA-5F88-F44F-AED6-BB3F5A70B725}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -862,7 +862,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -890,6 +890,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,13 +928,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1"/>
@@ -937,6 +942,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1254,8 +1262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A8D0294-7B17-C346-9BB8-48947A2F0825}">
   <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71:XFD80"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="A121" sqref="A121:XFD130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1405,283 +1413,283 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="B11" s="5" t="s">
+    <row r="11" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="B13" s="5" t="s">
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="B15" s="5" t="s">
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="B16" s="5" t="s">
+      <c r="D15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="B17" s="5" t="s">
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="B18" s="5" t="s">
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="B19" s="5" t="s">
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="B20" s="5" t="s">
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="B21" s="5" t="s">
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="B22" s="5" t="s">
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="B23" s="5" t="s">
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="B24" s="5" t="s">
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="B25" s="5" t="s">
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="B26" s="5" t="s">
+      <c r="D25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="B27" s="5" t="s">
+      <c r="D26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="B28" s="5" t="s">
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="B29" s="5" t="s">
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D29" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="B30" s="5" t="s">
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1962,563 +1970,563 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="B51" s="7" t="s">
+    <row r="51" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D51" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="B52" s="7" t="s">
+      <c r="D51" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B52" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D52" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="B53" s="7" t="s">
+      <c r="D52" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B53" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D53" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="B54" s="7" t="s">
+      <c r="D53" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B54" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D54" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="B55" s="7" t="s">
+      <c r="D54" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B55" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D55" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="B56" s="7" t="s">
+      <c r="D55" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B56" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D56" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="B57" s="7" t="s">
+      <c r="D56" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B57" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D57" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="B58" s="7" t="s">
+      <c r="D57" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B58" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D58" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="B59" s="7" t="s">
+      <c r="D58" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B59" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D59" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="B60" s="7" t="s">
+      <c r="D59" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B60" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D60" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="B61" s="9" t="s">
+      <c r="D60" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="B61" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C61" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="D61" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="B62" s="9" t="s">
+      <c r="D61" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="B62" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C62" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="D62" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="B63" s="9" t="s">
+      <c r="D62" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="B63" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C63" s="9" t="s">
+      <c r="C63" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="D63" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="B64" s="9" t="s">
+      <c r="D63" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="B64" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="C64" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="D64" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="B65" s="9" t="s">
+      <c r="D64" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="B65" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="C65" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="D65" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="B66" s="9" t="s">
+      <c r="D65" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="B66" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="C66" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D66" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="B67" s="9" t="s">
+      <c r="D66" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="B67" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="C67" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D67" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="B68" s="9" t="s">
+      <c r="D67" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="B68" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="C68" s="9" t="s">
+      <c r="C68" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="D68" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="B69" s="9" t="s">
+      <c r="D68" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="B69" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C69" s="9" t="s">
+      <c r="C69" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="D69" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="B70" s="9" t="s">
+      <c r="D69" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="B70" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="C70" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="D70" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="B71" s="11" t="s">
+      <c r="D70" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B71" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C71" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="D71" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="B72" s="11" t="s">
+      <c r="D71" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B72" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="C72" s="11" t="s">
+      <c r="C72" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="D72" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="B73" s="11" t="s">
+      <c r="D72" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B73" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="C73" s="11" t="s">
+      <c r="C73" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="D73" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="B74" s="11" t="s">
+      <c r="D73" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B74" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="C74" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="D74" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="B75" s="11" t="s">
+      <c r="D74" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B75" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="C75" s="11" t="s">
+      <c r="C75" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="D75" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="B76" s="11" t="s">
+      <c r="D75" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B76" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="C76" s="11" t="s">
+      <c r="C76" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="D76" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="B77" s="11" t="s">
+      <c r="D76" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B77" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C77" s="11" t="s">
+      <c r="C77" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="D77" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="B78" s="11" t="s">
+      <c r="D77" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B78" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C78" s="11" t="s">
+      <c r="C78" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="D78" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="B79" s="11" t="s">
+      <c r="D78" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B79" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C79" s="11" t="s">
+      <c r="C79" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="D79" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="B80" s="11" t="s">
+      <c r="D79" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B80" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="C80" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="D80" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A81" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B81" t="s">
+      <c r="D80" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="B81" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="D81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B82" t="s">
+      <c r="D81" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="B82" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="D82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A83" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B83" t="s">
+      <c r="D82" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="B83" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="D83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A84" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B84" t="s">
+      <c r="D83" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="B84" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A85" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B85" t="s">
+      <c r="D84" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="B85" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A86" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B86" t="s">
+      <c r="D85" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="B86" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A87" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B87" t="s">
+      <c r="D86" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="B87" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="D87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A88" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B88" t="s">
+      <c r="D87" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="B88" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="D88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A89" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B89" t="s">
+      <c r="D88" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="B89" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="D89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A90" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B90" t="s">
+      <c r="D89" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="B90" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="12">
         <v>0</v>
       </c>
     </row>
@@ -2662,229 +2670,229 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A101" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B101" t="s">
+    <row r="101" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="B101" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="D101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A102" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B102" t="s">
+      <c r="D101" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="B102" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="12" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A103" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B103" t="s">
+    <row r="103" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="B103" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="12" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A104" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B104" t="s">
+    <row r="104" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="B104" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="12" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A105" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B105" t="s">
+    <row r="105" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="B105" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="12" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A106" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B106" t="s">
+    <row r="106" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="B106" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="12" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A107" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B107" t="s">
+    <row r="107" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="B107" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="12" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A108" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B108" t="s">
+    <row r="108" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="B108" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="12" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A109" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B109" t="s">
+    <row r="109" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="B109" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="12" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A110" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B110" t="s">
+    <row r="110" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="B110" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="12" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A111" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B111" t="s">
+    <row r="111" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="B111" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="D111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A112" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B112" t="s">
+      <c r="D111" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="B112" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="12" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A113" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B113" t="s">
+    <row r="113" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="B113" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="12" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A114" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B114" s="2" t="s">
+    <row r="114" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="B114" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="12" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A115" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B115" t="s">
+    <row r="115" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="B115" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="12" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A116" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B116" s="2" t="s">
+    <row r="116" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="B116" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="12" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A117" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B117" t="s">
+    <row r="117" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="B117" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="12" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A118" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B118" t="s">
+    <row r="118" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="B118" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="12" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A119" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B119" t="s">
+    <row r="119" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="B119" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="12" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A120" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B120" s="3" t="s">
+    <row r="120" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="B120" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="12" t="s">
         <v>241</v>
       </c>
     </row>
